--- a/input/industry/Heat_levels.xlsx
+++ b/input/industry/Heat_levels.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A518D78B-BBA3-48FE-B14A-F52FA251360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186B14F7-01E6-4061-9FF1-C2F5B8C4CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="2010" windowWidth="21210" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="2790" windowWidth="19185" windowHeight="10200" xr2:uid="{14D76F3B-60B7-4511-B1B3-FDAA6825855D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="Verification" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>Industry</t>
   </si>
@@ -51,9 +52,6 @@
     <t>alu_prim</t>
   </si>
   <si>
-    <t>chlorin</t>
-  </si>
-  <si>
     <t>cement</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>stone_processing</t>
   </si>
   <si>
-    <t>https://ec.europa.eu/energy/sites/ener/files/documents/151221%20Mitteilung%20an%20KOM%20EED%20KWK%20Anlage%20Analyse.pdf</t>
-  </si>
-  <si>
     <t>&lt;100</t>
   </si>
   <si>
@@ -153,15 +148,9 @@
     <t>ethylene</t>
   </si>
   <si>
-    <t>where summ was == 99 % instead of 100% =&gt; the highest heat level != 0 got 1% additionally</t>
-  </si>
-  <si>
     <t>(mining, grundstofchemie and chemie rest)</t>
   </si>
   <si>
-    <t>verification with HR4 study:</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -192,21 +181,9 @@
     <t>Space heating</t>
   </si>
   <si>
-    <t>Regener</t>
-  </si>
-  <si>
-    <t>endemo per level</t>
-  </si>
-  <si>
-    <t>grobe aufteilung</t>
-  </si>
-  <si>
     <t>Q1=13</t>
   </si>
   <si>
-    <t>(&lt;60 + 60-100)</t>
-  </si>
-  <si>
     <t>Wärme lässt sich dann über eine Fußboden- oder Wandflächenheizung effizient verteilen und nut-</t>
   </si>
   <si>
@@ -225,18 +202,6 @@
     <t>N:\Methoden\Modelle\endemo\02_Literaturverweise\04_EinflussgrößendesEnergieverbrauchs_Einflussgrößen.pdf</t>
   </si>
   <si>
-    <t>Warmwasser Anteil</t>
-  </si>
-  <si>
-    <t>* vor allem in Deutschland gültig</t>
-  </si>
-  <si>
-    <t>cooper_prim</t>
-  </si>
-  <si>
-    <t>cooper_sec</t>
-  </si>
-  <si>
     <t>ammonia_classic</t>
   </si>
   <si>
@@ -256,6 +221,102 @@
   </si>
   <si>
     <t>steel_sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit: </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>https://www.clearingstelle-eeg-kwkg.de/sites/default/files/BMWi_141001_potenzial-und-kosten-nutzen-analyse-zu-den-einsatzmoeglichkeiten-von-kraft-waerme-kopplung.pdf</t>
+  </si>
+  <si>
+    <t>Table: heat distribution 2012 [1]</t>
+  </si>
+  <si>
+    <t>Distribution of heat in German industry sector 2012</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Distribution of hot water and space heating in German industry sector 2012</t>
+  </si>
+  <si>
+    <t>previously: https://ec.europa.eu/energy/sites/ener/files/documents/151221%20Mitteilung%20an%20KOM%20EED%20KWK%20Anlage%20Analyse.pdf</t>
+  </si>
+  <si>
+    <t>Table: hot water and space heating distribution 2012 [2]</t>
+  </si>
+  <si>
+    <t>https://docplayer.org/5328701-Erstellung-von-anwendungsbilanzen-fuer-das-jahr-2012-fuer-das-verarbeitende-gewerbe-mit-aktualisierungen-fuer-die-jahre-2009-2011.html</t>
+  </si>
+  <si>
+    <t>Warm water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumptions: </t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Distribution of Germany for all the countries</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>where summ of percentages in [1] was = 99 % instead of 100% due to rounding =&gt; the highest heat level != 0 got 1% additionally</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Settings:</t>
+  </si>
+  <si>
+    <t>Temperature levels</t>
+  </si>
+  <si>
+    <t>Space heating (&lt;60 + 60-100)</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>endemo (orig)</t>
+  </si>
+  <si>
+    <t>endemo roughly devided per given levels</t>
+  </si>
+  <si>
+    <t>MA Regener</t>
+  </si>
+  <si>
+    <t>HRE4 study</t>
+  </si>
+  <si>
+    <t>HRE4</t>
+  </si>
+  <si>
+    <t>WP3 Baseline</t>
+  </si>
+  <si>
+    <t>chlorine</t>
+  </si>
+  <si>
+    <t>copper_prim</t>
+  </si>
+  <si>
+    <t>copper_sec</t>
   </si>
 </sst>
 </file>
@@ -265,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +342,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -291,8 +359,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -314,18 +382,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,12 +400,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +705,7 @@
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,142 +722,119 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2" si="0">H3*$O$4</f>
+        <v>18.101667990468627</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2" si="1">H3*$P$4+I3</f>
+        <v>38.898332009531373</v>
+      </c>
+      <c r="D2">
+        <f>J3</f>
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <f>SUM(K3:M3)</f>
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8">
-        <f t="shared" ref="B2" si="0">H2*$O$2</f>
-        <v>18.653846153846153</v>
-      </c>
-      <c r="C2" s="8">
-        <f t="shared" ref="C2" si="1">H2*$P$2+I2</f>
-        <v>38.346153846153847</v>
-      </c>
-      <c r="D2">
-        <f>J2</f>
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <f>SUM(K2:M2)</f>
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>37</v>
-      </c>
-      <c r="J2">
-        <v>41</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>9.7/(9.7+0.7)</f>
-        <v>0.93269230769230771</v>
-      </c>
-      <c r="P2">
-        <f>0.7/(9.7+0.7)</f>
-        <v>6.7307692307692318E-2</v>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8">
-        <f t="shared" ref="B3:B11" si="2">H3*$O$2</f>
-        <v>30.778846153846153</v>
-      </c>
-      <c r="C3" s="8">
-        <f t="shared" ref="C3:C11" si="3">H3*$P$2+I3</f>
-        <v>28.221153846153847</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B11" si="2">H4*$O$4</f>
+        <v>29.867752184273233</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C11" si="3">H4*$P$4+I4</f>
+        <v>29.132247815726767</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="4">J3</f>
+        <f t="shared" ref="D3:D11" si="4">J4</f>
         <v>23</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="5">SUM(K3:M3)</f>
+        <f t="shared" ref="E3:E11" si="5">SUM(K4:M4)</f>
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="I3">
-        <v>26</v>
-      </c>
-      <c r="J3">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="2"/>
-        <v>3.7307692307692308</v>
-      </c>
-      <c r="C4" s="8">
+        <v>3.6203335980937252</v>
+      </c>
+      <c r="C4" s="5">
         <f t="shared" si="3"/>
-        <v>84.269230769230774</v>
+        <v>84.379666401906277</v>
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
@@ -797,41 +845,46 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>18</v>
       </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>84</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+      <c r="O4" s="9">
+        <f>227.9/(227.9+23.9)</f>
+        <v>0.90508339952343131</v>
+      </c>
+      <c r="P4" s="9">
+        <f>23.9/(227.9+23.9)</f>
+        <v>9.4916600476568691E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="2"/>
-        <v>3.7307692307692308</v>
-      </c>
-      <c r="C5" s="8">
+        <v>3.6203335980937252</v>
+      </c>
+      <c r="C5" s="5">
         <f t="shared" si="3"/>
-        <v>3.2692307692307692</v>
+        <v>3.3796664019062748</v>
       </c>
       <c r="D5">
         <f t="shared" si="4"/>
@@ -842,38 +895,38 @@
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" si="2"/>
-        <v>20.51923076923077</v>
-      </c>
-      <c r="C6" s="8">
+        <v>19.911834789515488</v>
+      </c>
+      <c r="C6" s="5">
         <f t="shared" si="3"/>
-        <v>17.48076923076923</v>
+        <v>18.088165210484512</v>
       </c>
       <c r="D6">
         <f t="shared" si="4"/>
@@ -884,38 +937,38 @@
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5">
         <f t="shared" si="2"/>
-        <v>30.778846153846153</v>
-      </c>
-      <c r="C7" s="8">
+        <v>29.867752184273233</v>
+      </c>
+      <c r="C7" s="5">
         <f t="shared" si="3"/>
-        <v>22.221153846153847</v>
+        <v>23.132247815726767</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
@@ -926,38 +979,38 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5">
         <f t="shared" si="2"/>
-        <v>15.855769230769232</v>
-      </c>
-      <c r="C8" s="8">
+        <v>15.386417791898332</v>
+      </c>
+      <c r="C8" s="5">
         <f t="shared" si="3"/>
-        <v>1.1442307692307694</v>
+        <v>1.6135822081016677</v>
       </c>
       <c r="D8">
         <f t="shared" si="4"/>
@@ -968,38 +1021,38 @@
         <v>82</v>
       </c>
       <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
         <f t="shared" si="2"/>
-        <v>13.990384615384615</v>
-      </c>
-      <c r="C9" s="8">
+        <v>13.57625099285147</v>
+      </c>
+      <c r="C9" s="5">
         <f t="shared" si="3"/>
-        <v>21.009615384615383</v>
+        <v>21.42374900714853</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -1010,38 +1063,38 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5">
         <f t="shared" si="2"/>
-        <v>30.778846153846153</v>
-      </c>
-      <c r="C10" s="8">
+        <v>29.867752184273233</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="3"/>
-        <v>21.221153846153847</v>
+        <v>22.132247815726767</v>
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
@@ -1052,38 +1105,38 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
         <f t="shared" si="2"/>
-        <v>3.7307692307692308</v>
-      </c>
-      <c r="C11" s="8">
+        <v>3.6203335980937252</v>
+      </c>
+      <c r="C11" s="5">
         <f t="shared" si="3"/>
-        <v>0.26923076923076927</v>
+        <v>0.37966640190627476</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
@@ -1094,80 +1147,80 @@
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8">
-        <f>$H$12*$O$2</f>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C12" s="8">
-        <f>$H$12*$P$2+I12</f>
-        <v>16.471153846153847</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <f>$H$13*$O$4</f>
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C12" s="5">
+        <f>$H$13*$P$4+I13</f>
+        <v>16.664416203335982</v>
       </c>
       <c r="D12">
-        <f>$J$12</f>
+        <f>$J$13</f>
         <v>11</v>
       </c>
       <c r="E12">
-        <f>SUM($K$12:$M$12)</f>
+        <f>SUM($K$13:$M$13)</f>
         <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
         <f>B12</f>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C13" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C13" s="5">
         <f t="shared" ref="C13:E13" si="6">C12</f>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D13">
         <f t="shared" si="6"/>
@@ -1178,38 +1231,38 @@
         <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>7</v>
       </c>
       <c r="I13">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
         <f t="shared" ref="B14:B21" si="7">B13</f>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C14" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C14" s="5">
         <f t="shared" ref="C14:C21" si="8">C13</f>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:D21" si="9">D13</f>
@@ -1223,35 +1276,35 @@
         <v>32</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="J14">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="8">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5">
         <f t="shared" si="7"/>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C15" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D15">
         <f t="shared" si="9"/>
@@ -1262,38 +1315,38 @@
         <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
         <f t="shared" si="7"/>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C16" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D16">
         <f t="shared" si="9"/>
@@ -1303,18 +1356,39 @@
         <f t="shared" si="10"/>
         <v>66</v>
       </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="8">
+        <v>56</v>
+      </c>
+      <c r="B17" s="5">
         <f t="shared" si="7"/>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C17" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D17">
         <f t="shared" si="9"/>
@@ -1327,15 +1401,15 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="8">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5">
         <f t="shared" si="7"/>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C18" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D18">
         <f t="shared" si="9"/>
@@ -1348,15 +1422,15 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="8">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5">
         <f t="shared" si="7"/>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C19" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D19">
         <f t="shared" si="9"/>
@@ -1369,15 +1443,15 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="8">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5">
         <f t="shared" si="7"/>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C20" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D20">
         <f t="shared" si="9"/>
@@ -1390,15 +1464,15 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="8">
+        <v>60</v>
+      </c>
+      <c r="B21" s="5">
         <f t="shared" si="7"/>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C21" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D21">
         <f t="shared" si="9"/>
@@ -1411,15 +1485,15 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8">
+        <v>92</v>
+      </c>
+      <c r="B22" s="5">
         <f>B16</f>
-        <v>6.5288461538461542</v>
-      </c>
-      <c r="C22" s="8">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="C22" s="5">
         <f>C16</f>
-        <v>16.471153846153847</v>
+        <v>16.664416203335982</v>
       </c>
       <c r="D22">
         <f>D16</f>
@@ -1432,78 +1506,78 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8">
-        <f>H14*$O$2</f>
-        <v>2.7980769230769234</v>
-      </c>
-      <c r="C23" s="8">
-        <f>H14*$P$2+I14</f>
-        <v>3.2019230769230771</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="5">
+        <f>H15*$O$4</f>
+        <v>2.7152501985702937</v>
+      </c>
+      <c r="C23" s="5">
+        <f>H15*$P$4+I15</f>
+        <v>3.2847498014297063</v>
       </c>
       <c r="D23">
-        <f>J14</f>
+        <f>J15</f>
         <v>19</v>
       </c>
       <c r="E23">
-        <f>SUM(K14:M14)</f>
+        <f>SUM(K15:M15)</f>
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="8">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5">
         <f>B23</f>
-        <v>2.7980769230769234</v>
-      </c>
-      <c r="C24" s="8">
+        <v>2.7152501985702937</v>
+      </c>
+      <c r="C24" s="5">
         <f t="shared" ref="C24:E24" si="11">C23</f>
-        <v>3.2019230769230771</v>
-      </c>
-      <c r="D24" s="8">
+        <v>3.2847498014297063</v>
+      </c>
+      <c r="D24" s="5">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="8">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5">
         <f>B24</f>
-        <v>2.7980769230769234</v>
-      </c>
-      <c r="C25" s="8">
+        <v>2.7152501985702937</v>
+      </c>
+      <c r="C25" s="5">
         <f t="shared" ref="C25" si="12">C24</f>
-        <v>3.2019230769230771</v>
-      </c>
-      <c r="D25" s="8">
+        <v>3.2847498014297063</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" ref="D25" si="13">D24</f>
         <v>19</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <f t="shared" ref="E25" si="14">E24</f>
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="8">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
         <f>B23</f>
-        <v>2.7980769230769234</v>
-      </c>
-      <c r="C26" s="8">
+        <v>2.7152501985702937</v>
+      </c>
+      <c r="C26" s="5">
         <f>C23</f>
-        <v>3.2019230769230771</v>
+        <v>3.2847498014297063</v>
       </c>
       <c r="D26">
         <f>D23</f>
@@ -1518,34 +1592,34 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="8">
-        <f>H15*$O$2</f>
-        <v>18.653846153846153</v>
-      </c>
-      <c r="C27" s="8">
-        <f>H15*$P$2+I15</f>
-        <v>5.3461538461538467</v>
+      <c r="B27" s="5">
+        <f>H16*$O$4</f>
+        <v>18.101667990468627</v>
+      </c>
+      <c r="C27" s="5">
+        <f>H16*$P$4+I16</f>
+        <v>5.8983320095313738</v>
       </c>
       <c r="D27">
-        <f>J15</f>
+        <f>J16</f>
         <v>4</v>
       </c>
       <c r="E27">
-        <f>SUM(K15:M15)</f>
+        <f>SUM(K16:M16)</f>
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="8">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5">
         <f>B27</f>
-        <v>18.653846153846153</v>
-      </c>
-      <c r="C28" s="8">
+        <v>18.101667990468627</v>
+      </c>
+      <c r="C28" s="5">
         <f t="shared" ref="C28:C30" si="15">C27</f>
-        <v>5.3461538461538467</v>
+        <v>5.8983320095313738</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:D30" si="16">D27</f>
@@ -1558,15 +1632,15 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="8">
+        <v>93</v>
+      </c>
+      <c r="B29" s="5">
         <f t="shared" ref="B29:B30" si="18">B28</f>
-        <v>18.653846153846153</v>
-      </c>
-      <c r="C29" s="8">
+        <v>18.101667990468627</v>
+      </c>
+      <c r="C29" s="5">
         <f t="shared" si="15"/>
-        <v>5.3461538461538467</v>
+        <v>5.8983320095313738</v>
       </c>
       <c r="D29">
         <f t="shared" si="16"/>
@@ -1579,15 +1653,15 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="8">
+        <v>94</v>
+      </c>
+      <c r="B30" s="5">
         <f t="shared" si="18"/>
-        <v>18.653846153846153</v>
-      </c>
-      <c r="C30" s="8">
+        <v>18.101667990468627</v>
+      </c>
+      <c r="C30" s="5">
         <f t="shared" si="15"/>
-        <v>5.3461538461538467</v>
+        <v>5.8983320095313738</v>
       </c>
       <c r="D30">
         <f t="shared" si="16"/>
@@ -1605,200 +1679,314 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C16" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" display="https://d-nb.info/1049260554/34" xr:uid="{158689BF-303F-4CC3-9B48-5FEDA071390B}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{28403201-3B1A-446C-AE7D-F39A426FD410}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{39AC7096-1C23-458D-B339-BE04A25F25FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552D83E0-7D99-4FA4-A71D-FB3F50E7F5E9}">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>11.3</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>24.4</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>10.8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>11.3</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C11">
-        <v>24.4</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>10.8</v>
-      </c>
-      <c r="E12" s="9">
-        <v>35</v>
-      </c>
-      <c r="F12" s="9">
-        <v>35</v>
-      </c>
-      <c r="H12" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14">
+      <c r="D7" s="8">
         <v>23</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://ec.europa.eu/energy/sites/ener/files/documents/151221 Mitteilung an KOM EED KWK Anlage Analyse.pdf" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A26" r:id="rId2" display="https://d-nb.info/1049260554/34" xr:uid="{158689BF-303F-4CC3-9B48-5FEDA071390B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>